--- a/Conceptual Database Layout.xlsx
+++ b/Conceptual Database Layout.xlsx
@@ -1046,6 +1046,4446 @@
           <a:ext cx="261938" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="2828925"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberNotes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="3114675"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberNoteID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="3408269"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="3696260"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DateTime</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="3983504"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Subject</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371889</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1142586</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371889" y="4263651"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Content</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="5038725"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberAddresses</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="5324475"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AddressID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="5618069"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>48185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="5906060"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Address1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="6193304"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Address2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895764</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>513936</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1505364" y="6473451"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>City</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="6762750"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>StateProvince</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>49119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="7049994"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Zip</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895764</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>513936</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>138766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1505364" y="7330141"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AddressType</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="4943475"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SubscriptionLevels</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rectangle 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="5229225"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SubLevelID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="5522819"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Description</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="5810810"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>RenewalAmt</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>49679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="6098054"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Active</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="2828925"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Members</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="3114675"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>122144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rectangle 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="3408269"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>FirstName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rectangle 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="3696260"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MiddleName</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>125879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>30629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="3983504"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>LastName</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400464</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523461</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rectangle 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5896389" y="4263651"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Email</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rectangle 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="4552950"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Phone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rectangle 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="4840194"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Gender</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400464</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523461</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rectangle 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5896389" y="5120341"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>JoinDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400464</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523461</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Rectangle 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5896389" y="5406651"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Birthdate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Rectangle 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="5695950"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SubscriptionLevel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="6353175"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AccountCharges</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rectangle 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="6638925"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ChargeID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>122144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rectangle 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="6932519"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="7220510"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ChargeDate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>125879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rectangle 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="7507754"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Amount</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438564</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561561</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rectangle 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934489" y="7787901"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PaymentDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rectangle 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="8077200"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PaymentMethod</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>125319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>30069</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rectangle 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="8364444"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PaymentIDRef</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="Rectangle 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="2813050"/>
+          <a:ext cx="1362075" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberEvents</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="Rectangle 101"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="3098800"/>
+          <a:ext cx="1362075" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="Rectangle 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="3392394"/>
+          <a:ext cx="1362075" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>EventID (PK)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="Rectangle 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="3680385"/>
+          <a:ext cx="1362075" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Rating</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="Rectangle 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="3967629"/>
+          <a:ext cx="1362075" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Feedback</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="Rectangle 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="5267325"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberInterests</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="Rectangle 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="5553075"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>InterestID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Rectangle 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="5846669"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="Rectangle 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="6134660"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Interest</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Rectangle 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="7010400"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberCCInfo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="Rectangle 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="7296150"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CCID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>112619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>17369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rectangle 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="7589744"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Rectangle 125"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="7877735"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CardType</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>116354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="Rectangle 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="8164979"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CardNumber</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229014</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390111</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>110751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="Rectangle 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258589" y="8445126"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SecCode</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="Rectangle 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258175" y="8734425"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ExpDate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Rectangle 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="3762375"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Events</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Rectangle 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="4048125"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>EventID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="Rectangle 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="4341719"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>EventDate</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Rectangle 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="4629710"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>StartTime</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="Rectangle 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="4916954"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>EndTime</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419514</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>580611</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Rectangle 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277889" y="5197101"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>EventTitle</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rectangle 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="5486400"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Description</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="Rectangle 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277475" y="5773644"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Organizer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419514</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>580611</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5416</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="Rectangle 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277889" y="6053791"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Comments</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="Rectangle 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="6848475"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CCTransactions</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="Rectangle 145"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="7134225"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TransID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="Rectangle 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="7427819"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CCID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>48185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="Rectangle 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="7715810"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DateTime</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>49679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="Rectangle 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944225" y="8003054"/>
+          <a:ext cx="1381125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Amount</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476664</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>44076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28161</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>139326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Rectangle 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944639" y="8283201"/>
+          <a:ext cx="1380297" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CCResultCode</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>74519</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Elbow Connector 4"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1746250" y="3257550"/>
+          <a:ext cx="4146550" cy="293594"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>188819</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Elbow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2879725" y="3257550"/>
+          <a:ext cx="3013075" cy="2503394"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13119"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="1"/>
+          <a:endCxn id="65" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5124450" y="5372101"/>
+          <a:ext cx="768350" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>36419</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Elbow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="1"/>
+          <a:endCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7270751" y="3257550"/>
+          <a:ext cx="1336675" cy="2731994"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 84442"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>146049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="102" idx="1"/>
+          <a:endCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7270750" y="3241674"/>
+          <a:ext cx="1130300" cy="15875"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="1"/>
+          <a:endCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7270751" y="3257551"/>
+          <a:ext cx="974725" cy="4181475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>169769</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="3"/>
+          <a:endCxn id="77" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7270750" y="3257550"/>
+          <a:ext cx="38100" cy="3817844"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -1641667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="Elbow Connector 157"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="3"/>
+          <a:endCxn id="135" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="3535269"/>
+          <a:ext cx="482600" cy="655731"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>93570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="160" name="Elbow Connector 159"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="147" idx="1"/>
+          <a:endCxn id="124" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="9613901" y="7439026"/>
+          <a:ext cx="1292225" cy="131669"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1359,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,8 +5814,11 @@
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="14" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Conceptual Database Layout.xlsx
+++ b/Conceptual Database Layout.xlsx
@@ -3335,7 +3335,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MemberEvents</a:t>
+            <a:t>EventMembers</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3390,7 +3390,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MemberID </a:t>
+            <a:t>EventID</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -3450,7 +3450,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>EventID (PK)</a:t>
+            <a:t>MemberID(PK)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4252,7 +4252,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Events</a:t>
+            <a:t>MemberEvents</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5507,6 +5507,546 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1306286</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Multiply 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="2803072"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>683079</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>642257</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Multiply 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="5459186"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155122</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Multiply 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5666015" y="3529693"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Multiply 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3646714" y="4762500"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="Multiply 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5742214" y="6640286"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>547007</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Multiply 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8085364" y="7241721"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="Multiply 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10763250" y="6885215"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>412751</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303893</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="Multiply 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8454572" y="4904015"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156936</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>48079</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="Multiply 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10035722" y="4308022"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="Multiply 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8395607" y="2707822"/>
+          <a:ext cx="1728107" cy="1782536"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5801,8 +6341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Conceptual Database Layout.xlsx
+++ b/Conceptual Database Layout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2832,461 +2832,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Rectangle 89"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="6353175"/>
-          <a:ext cx="1381125" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>AccountCharges</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Rectangle 90"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="6638925"/>
-          <a:ext cx="1381125" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>ChargeID </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>(PK)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>122144</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rectangle 91"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="6932519"/>
-          <a:ext cx="1381125" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>MemberID</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>124385</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Rectangle 92"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="7220510"/>
-          <a:ext cx="1381125" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>ChargeDate</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>30629</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>125879</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Rectangle 93"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="7507754"/>
-          <a:ext cx="1381125" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Amount</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438564</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>120276</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561561</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25026</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Rectangle 94"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934489" y="7787901"/>
-          <a:ext cx="1380297" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>PaymentDate</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="Rectangle 95"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="8077200"/>
-          <a:ext cx="1381125" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>PaymentMethod</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>125319</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>30069</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="Rectangle 96"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5934075" y="8364444"/>
-          <a:ext cx="1381125" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>PaymentIDRef</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>384175</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -5359,58 +4904,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>169769</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="3"/>
-          <a:endCxn id="77" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7270750" y="3257550"/>
-          <a:ext cx="38100" cy="3817844"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -1641667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
       <xdr:row>19</xdr:row>
@@ -5507,546 +5000,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1306286</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="Multiply 105"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="2803072"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>683079</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>642257</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138793</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="Multiply 106"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1295400" y="5459186"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>155122</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>46264</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Multiply 107"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5666015" y="3529693"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>176892</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="Multiply 108"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3646714" y="4762500"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>231321</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="Multiply 109"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5742214" y="6640286"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>547007</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="Multiply 110"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8085364" y="7241721"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="Multiply 115"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10763250" y="6885215"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>412751</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>303893</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>155122</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="Multiply 116"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8454572" y="4904015"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>156936</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>62593</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>48079</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="Multiply 118"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10035722" y="4308022"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="Multiply 119"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8395607" y="2707822"/>
-          <a:ext cx="1728107" cy="1782536"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6341,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6369,7 +5322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Conceptual Database Layout.xlsx
+++ b/Conceptual Database Layout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5000,6 +5000,511 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857249</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Rectangle 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2013856" y="2286000"/>
+          <a:ext cx="1224643" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="F79646"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MemberPasswords</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>363311</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>713016</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Elbow Connector 96"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2232253" y="1432151"/>
+          <a:ext cx="952500" cy="771526"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202746</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Rectangle 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4014107" y="7293429"/>
+          <a:ext cx="1386568" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberPasswords</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202746</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="Rectangle 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4014107" y="7579179"/>
+          <a:ext cx="1386568" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MemberID (PK)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>7844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202746</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>103094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Rectangle 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4014107" y="7872773"/>
+          <a:ext cx="1386568" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Password</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202746</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Rectangle 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4014107" y="8160764"/>
+          <a:ext cx="1386568" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ModifiedDate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>202746</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1087891</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Elbow Connector 109"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="2"/>
+          <a:endCxn id="100" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5275830" y="6113350"/>
+          <a:ext cx="1447800" cy="1198109"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:sysClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68036" y="40823"/>
+          <a:ext cx="1306285" cy="312964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>Conceptual</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rectangle 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10327822" y="2952749"/>
+          <a:ext cx="1061357" cy="489857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400"/>
+            <a:t>Logical</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5294,8 +5799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A14"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U38" sqref="U37:U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5322,7 +5827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
